--- a/s1cDNASample/s1CDNA_hbrown_05.25.20.xlsx
+++ b/s1cDNASample/s1CDNA_hbrown_05.25.20.xlsx
@@ -180,7 +180,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E27"/>
+      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/s1cDNASample/s1CDNA_hbrown_05.25.20.xlsx
+++ b/s1cDNASample/s1CDNA_hbrown_05.25.20.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -180,7 +180,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
